--- a/examples/mouse/artifact/script/MouseWheel.xlsx
+++ b/examples/mouse/artifact/script/MouseWheel.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10708"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/examples/mouse/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D713C402-FE8D-F04F-A41E-494E35240BA3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{C3723BDC-869C-EE4A-A5DE-ADAA0AA09343}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="4280" windowWidth="51200" windowHeight="21020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="21020" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="4280" firstSheet="1"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Scenario" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="Scenario" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="560">
   <si>
     <t>description</t>
   </si>
@@ -1713,17 +1713,48 @@
     <t>-280</t>
   </si>
   <si>
-    <t>540</t>
-  </si>
-  <si>
     <t>450</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>1024</t>
+  </si>
+  <si>
+    <t>2048</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1800,8 +1831,109 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1820,8 +1952,161 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1859,148 +2144,522 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="53">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -2034,7 +2693,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2059,10 +2718,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2097,7 +2756,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2132,7 +2791,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2226,21 +2885,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2257,7 +2916,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2309,26 +2968,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF129"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2423,7 +3082,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>366</v>
       </c>
@@ -2518,7 +3177,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>450</v>
       </c>
@@ -2604,7 +3263,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>471</v>
       </c>
@@ -2687,7 +3346,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2761,7 +3420,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -2829,7 +3488,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2891,7 +3550,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2947,7 +3606,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2994,7 +3653,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>343</v>
       </c>
@@ -3035,7 +3694,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3073,7 +3732,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>329</v>
       </c>
@@ -3111,7 +3770,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -3146,7 +3805,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>502</v>
       </c>
@@ -3181,7 +3840,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>472</v>
       </c>
@@ -3213,7 +3872,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>192</v>
       </c>
@@ -3245,7 +3904,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -3271,7 +3930,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>235</v>
       </c>
@@ -3291,7 +3950,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -3311,7 +3970,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>391</v>
       </c>
@@ -3331,7 +3990,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>407</v>
       </c>
@@ -3351,7 +4010,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>408</v>
       </c>
@@ -3371,7 +4030,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>352</v>
       </c>
@@ -3391,7 +4050,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>392</v>
       </c>
@@ -3411,7 +4070,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>533</v>
       </c>
@@ -3431,7 +4090,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -3451,7 +4110,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -3471,7 +4130,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -3488,7 +4147,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -3505,7 +4164,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>409</v>
       </c>
@@ -3519,7 +4178,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
         <v>223</v>
       </c>
@@ -3533,7 +4192,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="E32" t="s">
         <v>62</v>
       </c>
@@ -3544,7 +4203,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="E33" t="s">
         <v>63</v>
       </c>
@@ -3555,7 +4214,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="E34" t="s">
         <v>64</v>
       </c>
@@ -3566,7 +4225,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="E35" t="s">
         <v>65</v>
       </c>
@@ -3577,7 +4236,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="36" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
         <v>66</v>
       </c>
@@ -3588,7 +4247,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>67</v>
       </c>
@@ -3599,7 +4258,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="38" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="E38" t="s">
         <v>68</v>
       </c>
@@ -3610,7 +4269,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="39" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="E39" t="s">
         <v>69</v>
       </c>
@@ -3621,7 +4280,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="40" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="G40" t="s">
         <v>76</v>
       </c>
@@ -3629,7 +4288,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="41" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="G41" t="s">
         <v>208</v>
       </c>
@@ -3637,7 +4296,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="G42" t="s">
         <v>536</v>
       </c>
@@ -3645,7 +4304,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="G43" t="s">
         <v>285</v>
       </c>
@@ -3653,7 +4312,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="G44" t="s">
         <v>296</v>
       </c>
@@ -3661,7 +4320,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="G45" t="s">
         <v>297</v>
       </c>
@@ -3669,7 +4328,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="G46" t="s">
         <v>339</v>
       </c>
@@ -3677,7 +4336,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="G47" t="s">
         <v>338</v>
       </c>
@@ -3685,7 +4344,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="48" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="G48" t="s">
         <v>207</v>
       </c>
@@ -3693,7 +4352,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="49" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="G49" t="s">
         <v>316</v>
       </c>
@@ -3701,7 +4360,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="G50" t="s">
         <v>335</v>
       </c>
@@ -3709,7 +4368,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="51" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="G51" t="s">
         <v>363</v>
       </c>
@@ -3717,7 +4376,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="G52" t="s">
         <v>298</v>
       </c>
@@ -3725,7 +4384,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="G53" t="s">
         <v>351</v>
       </c>
@@ -3733,7 +4392,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="G54" t="s">
         <v>327</v>
       </c>
@@ -3741,7 +4400,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="55" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="G55" t="s">
         <v>264</v>
       </c>
@@ -3749,7 +4408,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="56" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="G56" t="s">
         <v>288</v>
       </c>
@@ -3757,7 +4416,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="G57" t="s">
         <v>289</v>
       </c>
@@ -3765,7 +4424,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="58" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="G58" t="s">
         <v>537</v>
       </c>
@@ -3773,7 +4432,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="59" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="G59" t="s">
         <v>290</v>
       </c>
@@ -3781,7 +4440,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="G60" t="s">
         <v>299</v>
       </c>
@@ -3789,7 +4448,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="G61" t="s">
         <v>308</v>
       </c>
@@ -3797,7 +4456,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="G62" t="s">
         <v>333</v>
       </c>
@@ -3805,7 +4464,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="G63" t="s">
         <v>305</v>
       </c>
@@ -3813,7 +4472,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="G64" t="s">
         <v>306</v>
       </c>
@@ -3821,7 +4480,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="G65" t="s">
         <v>364</v>
       </c>
@@ -3829,7 +4488,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="G66" t="s">
         <v>365</v>
       </c>
@@ -3837,7 +4496,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="67" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="G67" t="s">
         <v>341</v>
       </c>
@@ -3845,7 +4504,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="68" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="G68" t="s">
         <v>309</v>
       </c>
@@ -3853,7 +4512,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="69" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="G69" t="s">
         <v>265</v>
       </c>
@@ -3861,7 +4520,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="70" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="G70" t="s">
         <v>520</v>
       </c>
@@ -3869,7 +4528,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="71" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="G71" t="s">
         <v>310</v>
       </c>
@@ -3877,7 +4536,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="G72" t="s">
         <v>405</v>
       </c>
@@ -3885,7 +4544,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="73" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="G73" t="s">
         <v>300</v>
       </c>
@@ -3893,7 +4552,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="G74" t="s">
         <v>406</v>
       </c>
@@ -3901,7 +4560,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="G75" t="s">
         <v>258</v>
       </c>
@@ -3909,7 +4568,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="76" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="G76" t="s">
         <v>505</v>
       </c>
@@ -3917,7 +4576,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="77" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="G77" t="s">
         <v>340</v>
       </c>
@@ -3925,7 +4584,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="78" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="G78" t="s">
         <v>276</v>
       </c>
@@ -3933,7 +4592,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="79" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="G79" t="s">
         <v>282</v>
       </c>
@@ -3941,7 +4600,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="80" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="G80" t="s">
         <v>287</v>
       </c>
@@ -3949,7 +4608,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="81" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="G81" t="s">
         <v>424</v>
       </c>
@@ -3957,7 +4616,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="G82" t="s">
         <v>328</v>
       </c>
@@ -3965,7 +4624,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="83" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="G83" t="s">
         <v>266</v>
       </c>
@@ -3973,7 +4632,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="84" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="G84" t="s">
         <v>277</v>
       </c>
@@ -3981,7 +4640,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="85" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="G85" t="s">
         <v>283</v>
       </c>
@@ -3989,7 +4648,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="86" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="G86" t="s">
         <v>272</v>
       </c>
@@ -3997,7 +4656,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="87" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="G87" t="s">
         <v>523</v>
       </c>
@@ -4005,7 +4664,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="88" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="G88" t="s">
         <v>267</v>
       </c>
@@ -4013,7 +4672,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="89" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="G89" t="s">
         <v>284</v>
       </c>
@@ -4021,7 +4680,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="90" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="G90" t="s">
         <v>268</v>
       </c>
@@ -4029,7 +4688,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="91" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="G91" t="s">
         <v>269</v>
       </c>
@@ -4037,7 +4696,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="92" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="G92" t="s">
         <v>301</v>
       </c>
@@ -4045,7 +4704,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="93" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="G93" t="s">
         <v>307</v>
       </c>
@@ -4053,7 +4712,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="94" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="G94" t="s">
         <v>291</v>
       </c>
@@ -4061,7 +4720,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="95" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="G95" t="s">
         <v>336</v>
       </c>
@@ -4069,7 +4728,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="96" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="G96" t="s">
         <v>273</v>
       </c>
@@ -4077,7 +4736,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="G97" t="s">
         <v>274</v>
       </c>
@@ -4085,197 +4744,197 @@
         <v>201</v>
       </c>
     </row>
-    <row r="98" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="Z98" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="Z99" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="100" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="Z100" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="101" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="Z101" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="102" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="102">
       <c r="Z102" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="103" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="Z103" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="104" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="Z104" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="105" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="105">
       <c r="Z105" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="106" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="Z106" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="107" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="107">
       <c r="Z107" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="108" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="108">
       <c r="Z108" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="109" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="109">
       <c r="Z109" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="110" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="110">
       <c r="Z110" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="111" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="111">
       <c r="Z111" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="112" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="112">
       <c r="Z112" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="113" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="113">
       <c r="Z113" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="114" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="114">
       <c r="Z114" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="115" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="115">
       <c r="Z115" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="116" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="116">
       <c r="Z116" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="117" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="117">
       <c r="Z117" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="118" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="118">
       <c r="Z118" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="119" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="119">
       <c r="Z119" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="120" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="120">
       <c r="Z120" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="121" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="121">
       <c r="Z121" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="122" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="122">
       <c r="Z122" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="123" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="123">
       <c r="Z123" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="124" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="124">
       <c r="Z124" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="125" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="125">
       <c r="Z125" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="126" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="126">
       <c r="Z126" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="127" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="127">
       <c r="Z127" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="128" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="128">
       <c r="Z128" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="129" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="129">
       <c r="Z129" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M24" activeCellId="2" sqref="C7:H7 C9:H10 M24"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.6640625" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="33.83203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="26.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="37.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="10.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="33.83203125" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="10" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -4306,7 +4965,7 @@
       <c r="N1" s="33"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>538</v>
       </c>
@@ -4327,7 +4986,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="36"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -4344,7 +5003,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>217</v>
       </c>
@@ -4389,7 +5048,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>540</v>
       </c>
@@ -4414,7 +5073,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -4435,7 +5094,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -4466,7 +5125,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13" t="s">
@@ -4491,7 +5150,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13" t="s">
@@ -4522,7 +5181,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13" t="s">
@@ -4532,13 +5191,13 @@
         <v>537</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>542</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>546</v>
@@ -4553,21 +5212,27 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>144</v>
+        <v>537</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+        <v>550</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>546</v>
+      </c>
       <c r="I11" s="7"/>
       <c r="J11" s="22"/>
       <c r="K11" s="3"/>
@@ -4578,177 +5243,311 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="C12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>546</v>
+      </c>
       <c r="I12" s="7"/>
       <c r="J12" s="22"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="15"/>
+      <c r="L12" s="15" t="s">
+        <v>544</v>
+      </c>
       <c r="M12" s="12"/>
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="C13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>546</v>
+      </c>
       <c r="I13" s="7"/>
       <c r="J13" s="22"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="15"/>
+      <c r="L13" s="15" t="s">
+        <v>544</v>
+      </c>
       <c r="M13" s="12"/>
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="C14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>546</v>
+      </c>
       <c r="I14" s="7"/>
       <c r="J14" s="22"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="15"/>
+      <c r="L14" s="15" t="s">
+        <v>544</v>
+      </c>
       <c r="M14" s="12"/>
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="C15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>546</v>
+      </c>
       <c r="I15" s="7"/>
       <c r="J15" s="22"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="15"/>
+      <c r="L15" s="15" t="s">
+        <v>544</v>
+      </c>
       <c r="M15" s="12"/>
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="C16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>546</v>
+      </c>
       <c r="I16" s="7"/>
       <c r="J16" s="22"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="15"/>
+      <c r="L16" s="15" t="s">
+        <v>544</v>
+      </c>
       <c r="M16" s="12"/>
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="C17" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>546</v>
+      </c>
       <c r="I17" s="7"/>
       <c r="J17" s="22"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="15"/>
+      <c r="L17" s="15" t="s">
+        <v>544</v>
+      </c>
       <c r="M17" s="12"/>
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="C18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>546</v>
+      </c>
       <c r="I18" s="7"/>
       <c r="J18" s="22"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="15"/>
+      <c r="L18" s="15" t="s">
+        <v>544</v>
+      </c>
       <c r="M18" s="12"/>
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="C19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>546</v>
+      </c>
       <c r="I19" s="7"/>
       <c r="J19" s="22"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="15"/>
+      <c r="L19" s="15" t="s">
+        <v>544</v>
+      </c>
       <c r="M19" s="12"/>
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="C20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>546</v>
+      </c>
       <c r="I20" s="7"/>
       <c r="J20" s="22"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="15"/>
+      <c r="L20" s="15" t="s">
+        <v>544</v>
+      </c>
       <c r="M20" s="12"/>
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="C21" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>545</v>
+      </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="22"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="15"/>
+      <c r="L21" s="15" t="s">
+        <v>544</v>
+      </c>
       <c r="M21" s="12"/>
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -4765,7 +5564,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -4782,7 +5581,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -4799,7 +5598,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -4816,7 +5615,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -4833,7 +5632,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -4850,9 +5649,9 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
-      <c r="B28" s="8"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="13"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -4867,7 +5666,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -4884,7 +5683,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -4901,7 +5700,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -4918,7 +5717,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -4935,7 +5734,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -4952,7 +5751,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -4969,7 +5768,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -4986,7 +5785,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -5003,7 +5802,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -5020,9 +5819,9 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
-      <c r="B38" s="5"/>
+      <c r="B38" s="8"/>
       <c r="C38" s="13"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -5037,7 +5836,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -5054,7 +5853,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -5071,7 +5870,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -5088,7 +5887,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -5105,7 +5904,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -5122,7 +5921,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -5139,7 +5938,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -5156,7 +5955,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -5173,7 +5972,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -5190,7 +5989,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -5207,7 +6006,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -5224,7 +6023,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -5241,7 +6040,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -5258,7 +6057,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -5275,7 +6074,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -5292,7 +6091,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -5309,7 +6108,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -5326,7 +6125,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -5343,7 +6142,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -5360,7 +6159,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -5377,7 +6176,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -5394,7 +6193,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -5411,7 +6210,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -5428,7 +6227,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -5445,7 +6244,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -5462,7 +6261,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -5479,7 +6278,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -5496,7 +6295,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -5513,7 +6312,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -5530,7 +6329,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -5547,7 +6346,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -5564,7 +6363,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -5581,7 +6380,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -5598,7 +6397,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -5615,7 +6414,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -5632,7 +6431,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -5649,7 +6448,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -5666,7 +6465,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -5683,7 +6482,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -5700,7 +6499,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -5717,7 +6516,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -5734,7 +6533,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -5751,7 +6550,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -5768,7 +6567,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -5785,7 +6584,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -5802,7 +6601,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -5819,7 +6618,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -5836,7 +6635,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -5853,7 +6652,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -5870,7 +6669,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -5887,7 +6686,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -5904,7 +6703,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -5921,7 +6720,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -5938,7 +6737,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -5955,7 +6754,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -5972,7 +6771,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -5989,7 +6788,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -6006,7 +6805,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -6023,7 +6822,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -6040,7 +6839,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -6057,7 +6856,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -6074,7 +6873,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -6091,8 +6890,178 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
+    <row customHeight="1" ht="23" r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101" s="27"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="22"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="15"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="15"/>
+      <c r="O101" s="3"/>
+    </row>
+    <row customHeight="1" ht="23" r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A102" s="27"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="22"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="15"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="15"/>
+      <c r="O102" s="3"/>
+    </row>
+    <row customHeight="1" ht="23" r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A103" s="27"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="22"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="15"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="15"/>
+      <c r="O103" s="3"/>
+    </row>
+    <row customHeight="1" ht="23" r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A104" s="27"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="22"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="15"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="15"/>
+      <c r="O104" s="3"/>
+    </row>
+    <row customHeight="1" ht="23" r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" s="27"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="22"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="15"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="15"/>
+      <c r="O105" s="3"/>
+    </row>
+    <row customHeight="1" ht="23" r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106" s="27"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="22"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="15"/>
+      <c r="M106" s="12"/>
+      <c r="N106" s="15"/>
+      <c r="O106" s="3"/>
+    </row>
+    <row customHeight="1" ht="23" r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107" s="27"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="22"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="15"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="15"/>
+      <c r="O107" s="3"/>
+    </row>
+    <row customHeight="1" ht="23" r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A108" s="27"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="22"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="15"/>
+      <c r="M108" s="12"/>
+      <c r="N108" s="15"/>
+      <c r="O108" s="3"/>
+    </row>
+    <row customHeight="1" ht="23" r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A109" s="27"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="22"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="15"/>
+      <c r="M109" s="12"/>
+      <c r="N109" s="15"/>
+      <c r="O109" s="3"/>
+    </row>
+    <row customHeight="1" ht="23" r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A110" s="27"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="22"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="15"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="15"/>
+      <c r="O110" s="3"/>
+    </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -6100,24 +7069,24 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C100" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C110" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D100" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D110" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/examples/mouse/artifact/script/MouseWheel.xlsx
+++ b/examples/mouse/artifact/script/MouseWheel.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{C3723BDC-869C-EE4A-A5DE-ADAA0AA09343}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="21020" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="4280" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="21020" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="4280"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -30,7 +30,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -45,14 +45,14 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="561">
   <si>
     <t>description</t>
   </si>
@@ -1747,6 +1747,9 @@
   </si>
   <si>
     <t>2048</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
   </si>
 </sst>
 </file>
@@ -1754,7 +1757,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1932,8 +1935,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2105,8 +2209,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -2470,6 +2727,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2477,7 +3060,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="69">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2606,52 +3189,100 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="13" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="15" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="17" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="12" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="42" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="48" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="39" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2976,9 +3607,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3061,24 +3692,21 @@
         <v>392</v>
       </c>
       <c r="Y1" t="s">
-        <v>533</v>
+        <v>52</v>
       </c>
       <c r="Z1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC1" t="s">
-        <v>55</v>
+        <v>409</v>
       </c>
       <c r="AD1" t="s">
-        <v>409</v>
-      </c>
-      <c r="AE1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3156,24 +3784,21 @@
         <v>402</v>
       </c>
       <c r="Y2" t="s">
-        <v>534</v>
+        <v>94</v>
       </c>
       <c r="Z2" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="AA2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AB2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AC2" t="s">
-        <v>179</v>
+        <v>427</v>
       </c>
       <c r="AD2" t="s">
-        <v>427</v>
-      </c>
-      <c r="AE2" t="s">
         <v>494</v>
       </c>
     </row>
@@ -3244,22 +3869,22 @@
       <c r="X3" t="s">
         <v>403</v>
       </c>
+      <c r="Y3" t="s">
+        <v>95</v>
+      </c>
       <c r="Z3" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="AA3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AB3" t="s">
-        <v>173</v>
+        <v>359</v>
       </c>
       <c r="AC3" t="s">
-        <v>359</v>
+        <v>180</v>
       </c>
       <c r="AD3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3327,22 +3952,22 @@
       <c r="X4" t="s">
         <v>404</v>
       </c>
+      <c r="Y4" t="s">
+        <v>349</v>
+      </c>
       <c r="Z4" t="s">
-        <v>349</v>
+        <v>169</v>
       </c>
       <c r="AA4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AB4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AC4" t="s">
-        <v>180</v>
+        <v>419</v>
       </c>
       <c r="AD4" t="s">
-        <v>419</v>
-      </c>
-      <c r="AE4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3401,22 +4026,22 @@
       <c r="W5" t="s">
         <v>354</v>
       </c>
+      <c r="Y5" t="s">
+        <v>350</v>
+      </c>
       <c r="Z5" t="s">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="AA5" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AB5" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AC5" t="s">
-        <v>181</v>
+        <v>420</v>
       </c>
       <c r="AD5" t="s">
-        <v>420</v>
-      </c>
-      <c r="AE5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3469,22 +4094,22 @@
       <c r="W6" t="s">
         <v>356</v>
       </c>
+      <c r="Y6" t="s">
+        <v>96</v>
+      </c>
       <c r="Z6" t="s">
-        <v>96</v>
+        <v>440</v>
       </c>
       <c r="AA6" t="s">
-        <v>440</v>
+        <v>176</v>
       </c>
       <c r="AB6" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AC6" t="s">
-        <v>182</v>
+        <v>421</v>
       </c>
       <c r="AD6" t="s">
-        <v>421</v>
-      </c>
-      <c r="AE6" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3531,22 +4156,22 @@
       <c r="W7" t="s">
         <v>355</v>
       </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
       <c r="Z7" t="s">
-        <v>97</v>
+        <v>441</v>
       </c>
       <c r="AA7" t="s">
-        <v>441</v>
+        <v>177</v>
       </c>
       <c r="AB7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AC7" t="s">
-        <v>183</v>
+        <v>422</v>
       </c>
       <c r="AD7" t="s">
-        <v>422</v>
-      </c>
-      <c r="AE7" t="s">
         <v>524</v>
       </c>
     </row>
@@ -3587,22 +4212,22 @@
       <c r="W8" t="s">
         <v>357</v>
       </c>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
       <c r="Z8" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="AA8" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AB8" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AC8" t="s">
-        <v>184</v>
+        <v>423</v>
       </c>
       <c r="AD8" t="s">
-        <v>423</v>
-      </c>
-      <c r="AE8" t="s">
         <v>525</v>
       </c>
     </row>
@@ -3643,13 +4268,13 @@
       <c r="W9" t="s">
         <v>358</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>205</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>185</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>526</v>
       </c>
     </row>
@@ -3684,13 +4309,13 @@
       <c r="T10" t="s">
         <v>401</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>253</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>186</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3722,13 +4347,13 @@
       <c r="R11" t="s">
         <v>244</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>254</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>255</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3760,13 +4385,13 @@
       <c r="R12" t="s">
         <v>245</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>99</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>187</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3795,13 +4420,13 @@
       <c r="R13" t="s">
         <v>250</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>322</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>188</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>469</v>
       </c>
     </row>
@@ -3830,13 +4455,13 @@
       <c r="R14" t="s">
         <v>246</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>100</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>189</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>495</v>
       </c>
     </row>
@@ -3862,13 +4487,13 @@
       <c r="R15" t="s">
         <v>247</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>101</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>190</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>496</v>
       </c>
     </row>
@@ -3886,7 +4511,7 @@
         <v>79</v>
       </c>
       <c r="M16" t="s">
-        <v>39</v>
+        <v>560</v>
       </c>
       <c r="Q16" t="s">
         <v>487</v>
@@ -3894,13 +4519,13 @@
       <c r="R16" t="s">
         <v>248</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>73</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>191</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>497</v>
       </c>
     </row>
@@ -3918,15 +4543,15 @@
         <v>80</v>
       </c>
       <c r="M17" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17" t="s">
         <v>488</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>462</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>498</v>
       </c>
     </row>
@@ -3943,10 +4568,13 @@
       <c r="K18" t="s">
         <v>458</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y18" t="s">
         <v>102</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>470</v>
       </c>
     </row>
@@ -3963,10 +4591,10 @@
       <c r="K19" t="s">
         <v>81</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>103</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>499</v>
       </c>
     </row>
@@ -3983,10 +4611,10 @@
       <c r="K20" t="s">
         <v>82</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>104</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>500</v>
       </c>
     </row>
@@ -4003,10 +4631,10 @@
       <c r="K21" t="s">
         <v>375</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>105</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>501</v>
       </c>
     </row>
@@ -4023,10 +4651,10 @@
       <c r="K22" t="s">
         <v>465</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>489</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4043,10 +4671,10 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>106</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>527</v>
       </c>
     </row>
@@ -4063,16 +4691,16 @@
       <c r="K24" t="s">
         <v>387</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>107</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>533</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
         <v>61</v>
@@ -4083,16 +4711,16 @@
       <c r="K25" t="s">
         <v>519</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>108</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
         <v>444</v>
@@ -4103,16 +4731,16 @@
       <c r="K26" t="s">
         <v>83</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>109</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
         <v>221</v>
@@ -4123,16 +4751,16 @@
       <c r="K27" t="s">
         <v>429</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>110</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
         <v>222</v>
@@ -4143,13 +4771,13 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>409</v>
       </c>
       <c r="E29" t="s">
         <v>463</v>
@@ -4160,13 +4788,13 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>409</v>
+        <v>223</v>
       </c>
       <c r="E30" t="s">
         <v>464</v>
@@ -4174,21 +4802,18 @@
       <c r="G30" t="s">
         <v>212</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>223</v>
-      </c>
       <c r="E31" t="s">
         <v>411</v>
       </c>
       <c r="G31" t="s">
         <v>271</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4199,7 +4824,7 @@
       <c r="G32" t="s">
         <v>281</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4210,7 +4835,7 @@
       <c r="G33" t="s">
         <v>504</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4221,7 +4846,7 @@
       <c r="G34" t="s">
         <v>256</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4232,7 +4857,7 @@
       <c r="G35" t="s">
         <v>326</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4243,7 +4868,7 @@
       <c r="G36" t="s">
         <v>303</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4254,7 +4879,7 @@
       <c r="G37" t="s">
         <v>257</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>334</v>
       </c>
     </row>
@@ -4265,7 +4890,7 @@
       <c r="G38" t="s">
         <v>304</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>433</v>
       </c>
     </row>
@@ -4276,7 +4901,7 @@
       <c r="G39" t="s">
         <v>263</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>522</v>
       </c>
     </row>
@@ -4284,7 +4909,7 @@
       <c r="G40" t="s">
         <v>76</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>388</v>
       </c>
     </row>
@@ -4292,7 +4917,7 @@
       <c r="G41" t="s">
         <v>208</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4300,7 +4925,7 @@
       <c r="G42" t="s">
         <v>536</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4308,7 +4933,7 @@
       <c r="G43" t="s">
         <v>285</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4316,7 +4941,7 @@
       <c r="G44" t="s">
         <v>296</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4324,7 +4949,7 @@
       <c r="G45" t="s">
         <v>297</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4332,7 +4957,7 @@
       <c r="G46" t="s">
         <v>339</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4340,7 +4965,7 @@
       <c r="G47" t="s">
         <v>338</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>434</v>
       </c>
     </row>
@@ -4348,7 +4973,7 @@
       <c r="G48" t="s">
         <v>207</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>209</v>
       </c>
     </row>
@@ -4356,7 +4981,7 @@
       <c r="G49" t="s">
         <v>316</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4364,7 +4989,7 @@
       <c r="G50" t="s">
         <v>335</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>531</v>
       </c>
     </row>
@@ -4372,7 +4997,7 @@
       <c r="G51" t="s">
         <v>363</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4380,7 +5005,7 @@
       <c r="G52" t="s">
         <v>298</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4388,7 +5013,7 @@
       <c r="G53" t="s">
         <v>351</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4396,7 +5021,7 @@
       <c r="G54" t="s">
         <v>327</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>490</v>
       </c>
     </row>
@@ -4404,7 +5029,7 @@
       <c r="G55" t="s">
         <v>264</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>459</v>
       </c>
     </row>
@@ -4412,7 +5037,7 @@
       <c r="G56" t="s">
         <v>288</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4420,7 +5045,7 @@
       <c r="G57" t="s">
         <v>289</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>342</v>
       </c>
     </row>
@@ -4428,7 +5053,7 @@
       <c r="G58" t="s">
         <v>537</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>460</v>
       </c>
     </row>
@@ -4436,7 +5061,7 @@
       <c r="G59" t="s">
         <v>290</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4444,7 +5069,7 @@
       <c r="G60" t="s">
         <v>299</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4452,7 +5077,7 @@
       <c r="G61" t="s">
         <v>308</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4460,7 +5085,7 @@
       <c r="G62" t="s">
         <v>333</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4468,7 +5093,7 @@
       <c r="G63" t="s">
         <v>305</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4476,7 +5101,7 @@
       <c r="G64" t="s">
         <v>306</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4484,7 +5109,7 @@
       <c r="G65" t="s">
         <v>364</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4492,7 +5117,7 @@
       <c r="G66" t="s">
         <v>365</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>435</v>
       </c>
     </row>
@@ -4500,7 +5125,7 @@
       <c r="G67" t="s">
         <v>341</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>468</v>
       </c>
     </row>
@@ -4508,7 +5133,7 @@
       <c r="G68" t="s">
         <v>309</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4516,7 +5141,7 @@
       <c r="G69" t="s">
         <v>265</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>384</v>
       </c>
     </row>
@@ -4524,7 +5149,7 @@
       <c r="G70" t="s">
         <v>520</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>436</v>
       </c>
     </row>
@@ -4532,7 +5157,7 @@
       <c r="G71" t="s">
         <v>310</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4540,7 +5165,7 @@
       <c r="G72" t="s">
         <v>405</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4548,7 +5173,7 @@
       <c r="G73" t="s">
         <v>300</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4556,7 +5181,7 @@
       <c r="G74" t="s">
         <v>406</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4564,7 +5189,7 @@
       <c r="G75" t="s">
         <v>258</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4572,7 +5197,7 @@
       <c r="G76" t="s">
         <v>505</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4580,7 +5205,7 @@
       <c r="G77" t="s">
         <v>340</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>448</v>
       </c>
     </row>
@@ -4588,7 +5213,7 @@
       <c r="G78" t="s">
         <v>276</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>461</v>
       </c>
     </row>
@@ -4596,7 +5221,7 @@
       <c r="G79" t="s">
         <v>282</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4604,7 +5229,7 @@
       <c r="G80" t="s">
         <v>287</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4612,7 +5237,7 @@
       <c r="G81" t="s">
         <v>424</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4620,7 +5245,7 @@
       <c r="G82" t="s">
         <v>328</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>491</v>
       </c>
     </row>
@@ -4628,7 +5253,7 @@
       <c r="G83" t="s">
         <v>266</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4636,7 +5261,7 @@
       <c r="G84" t="s">
         <v>277</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4644,7 +5269,7 @@
       <c r="G85" t="s">
         <v>283</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4652,7 +5277,7 @@
       <c r="G86" t="s">
         <v>272</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>492</v>
       </c>
     </row>
@@ -4660,7 +5285,7 @@
       <c r="G87" t="s">
         <v>523</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4668,7 +5293,7 @@
       <c r="G88" t="s">
         <v>267</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>449</v>
       </c>
     </row>
@@ -4676,7 +5301,7 @@
       <c r="G89" t="s">
         <v>284</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4684,7 +5309,7 @@
       <c r="G90" t="s">
         <v>268</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4692,7 +5317,7 @@
       <c r="G91" t="s">
         <v>269</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4700,7 +5325,7 @@
       <c r="G92" t="s">
         <v>301</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4708,7 +5333,7 @@
       <c r="G93" t="s">
         <v>307</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4716,7 +5341,7 @@
       <c r="G94" t="s">
         <v>291</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>437</v>
       </c>
     </row>
@@ -4724,7 +5349,7 @@
       <c r="G95" t="s">
         <v>336</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>438</v>
       </c>
     </row>
@@ -4732,7 +5357,7 @@
       <c r="G96" t="s">
         <v>273</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4740,167 +5365,167 @@
       <c r="G97" t="s">
         <v>274</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>166</v>
       </c>
     </row>

--- a/examples/mouse/artifact/script/MouseWheel.xlsx
+++ b/examples/mouse/artifact/script/MouseWheel.xlsx
@@ -24,7 +24,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -47,7 +47,7 @@
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3452" uniqueCount="567">
   <si>
     <t>description</t>
   </si>
@@ -1750,6 +1750,24 @@
   </si>
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1757,7 +1775,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="91" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2036,8 +2054,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2362,8 +2683,467 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="67">
+  <borders count="163">
     <border>
       <left/>
       <right/>
@@ -3053,6 +3833,984 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3060,7 +4818,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="117">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3237,52 +4995,196 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="33" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="36" fontId="29" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="39" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="42" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="42" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="33" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="48" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="48" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="39" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="39" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="60" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="63" fontId="45" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="66" fontId="46" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="69" fontId="47" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="49" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="90" fillId="75" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="66" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="87" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="90" fontId="61" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="93" fontId="62" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="118" fillId="96" fontId="63" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="65" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="102" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="93" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="114" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="117" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="120" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="123" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="129" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="120" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3607,7 +5509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -3988,7 +5890,7 @@
         <v>428</v>
       </c>
       <c r="G5" t="s">
-        <v>332</v>
+        <v>564</v>
       </c>
       <c r="H5" t="s">
         <v>455</v>
@@ -4062,7 +5964,7 @@
         <v>477</v>
       </c>
       <c r="G6" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="H6" t="s">
         <v>443</v>
@@ -4124,7 +6026,7 @@
         <v>220</v>
       </c>
       <c r="G7" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="H7" t="s">
         <v>442</v>
@@ -4186,7 +6088,7 @@
         <v>314</v>
       </c>
       <c r="G8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H8" t="s">
         <v>324</v>
@@ -4242,7 +6144,7 @@
         <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>302</v>
+        <v>362</v>
       </c>
       <c r="H9" t="s">
         <v>325</v>
@@ -4286,7 +6188,7 @@
         <v>311</v>
       </c>
       <c r="G10" t="s">
-        <v>348</v>
+        <v>302</v>
       </c>
       <c r="H10" t="s">
         <v>447</v>
@@ -4327,7 +6229,7 @@
         <v>251</v>
       </c>
       <c r="G11" t="s">
-        <v>270</v>
+        <v>348</v>
       </c>
       <c r="H11" t="s">
         <v>318</v>
@@ -4365,7 +6267,7 @@
         <v>315</v>
       </c>
       <c r="G12" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="H12" t="s">
         <v>319</v>
@@ -4403,7 +6305,7 @@
         <v>337</v>
       </c>
       <c r="G13" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="H13" t="s">
         <v>320</v>
@@ -4438,7 +6340,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="H14" t="s">
         <v>321</v>
@@ -4473,7 +6375,7 @@
         <v>57</v>
       </c>
       <c r="G15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K15" t="s">
         <v>482</v>
@@ -4505,7 +6407,7 @@
         <v>380</v>
       </c>
       <c r="G16" t="s">
-        <v>313</v>
+        <v>261</v>
       </c>
       <c r="K16" t="s">
         <v>79</v>
@@ -4537,7 +6439,7 @@
         <v>381</v>
       </c>
       <c r="G17" t="s">
-        <v>87</v>
+        <v>313</v>
       </c>
       <c r="K17" t="s">
         <v>80</v>
@@ -4563,7 +6465,7 @@
         <v>410</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s">
         <v>458</v>
@@ -4586,7 +6488,7 @@
         <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>292</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s">
         <v>81</v>
@@ -4606,7 +6508,7 @@
         <v>59</v>
       </c>
       <c r="G20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K20" t="s">
         <v>82</v>
@@ -4626,7 +6528,7 @@
         <v>252</v>
       </c>
       <c r="G21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K21" t="s">
         <v>375</v>
@@ -4646,7 +6548,7 @@
         <v>535</v>
       </c>
       <c r="G22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K22" t="s">
         <v>465</v>
@@ -4666,7 +6568,7 @@
         <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="K23" t="s">
         <v>43</v>
@@ -4686,13 +6588,13 @@
         <v>317</v>
       </c>
       <c r="G24" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="K24" t="s">
         <v>387</v>
       </c>
       <c r="Y24" t="s">
-        <v>107</v>
+        <v>561</v>
       </c>
       <c r="AD24" t="s">
         <v>528</v>
@@ -4706,13 +6608,13 @@
         <v>61</v>
       </c>
       <c r="G25" t="s">
-        <v>74</v>
+        <v>275</v>
       </c>
       <c r="K25" t="s">
         <v>519</v>
       </c>
       <c r="Y25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AD25" t="s">
         <v>529</v>
@@ -4726,13 +6628,13 @@
         <v>444</v>
       </c>
       <c r="G26" t="s">
-        <v>278</v>
+        <v>74</v>
       </c>
       <c r="K26" t="s">
         <v>83</v>
       </c>
       <c r="Y26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD26" t="s">
         <v>232</v>
@@ -4746,13 +6648,13 @@
         <v>221</v>
       </c>
       <c r="G27" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="K27" t="s">
         <v>429</v>
       </c>
       <c r="Y27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD27" t="s">
         <v>233</v>
@@ -4766,13 +6668,13 @@
         <v>222</v>
       </c>
       <c r="G28" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="K28" t="s">
         <v>44</v>
       </c>
       <c r="Y28" t="s">
-        <v>323</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
@@ -4783,13 +6685,13 @@
         <v>463</v>
       </c>
       <c r="G29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K29" t="s">
         <v>45</v>
       </c>
       <c r="Y29" t="s">
-        <v>111</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30">
@@ -4800,10 +6702,10 @@
         <v>464</v>
       </c>
       <c r="G30" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="Y30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31">
@@ -4811,10 +6713,10 @@
         <v>411</v>
       </c>
       <c r="G31" t="s">
-        <v>271</v>
+        <v>212</v>
       </c>
       <c r="Y31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32">
@@ -4822,10 +6724,10 @@
         <v>62</v>
       </c>
       <c r="G32" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="Y32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
@@ -4833,10 +6735,10 @@
         <v>63</v>
       </c>
       <c r="G33" t="s">
-        <v>504</v>
+        <v>281</v>
       </c>
       <c r="Y33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
@@ -4844,10 +6746,10 @@
         <v>64</v>
       </c>
       <c r="G34" t="s">
-        <v>256</v>
+        <v>504</v>
       </c>
       <c r="Y34" t="s">
-        <v>116</v>
+        <v>562</v>
       </c>
     </row>
     <row r="35">
@@ -4855,10 +6757,10 @@
         <v>65</v>
       </c>
       <c r="G35" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="Y35" t="s">
-        <v>206</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
@@ -4866,10 +6768,10 @@
         <v>66</v>
       </c>
       <c r="G36" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="Y36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37">
@@ -4877,10 +6779,10 @@
         <v>67</v>
       </c>
       <c r="G37" t="s">
-        <v>257</v>
+        <v>303</v>
       </c>
       <c r="Y37" t="s">
-        <v>334</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38">
@@ -4888,10 +6790,10 @@
         <v>68</v>
       </c>
       <c r="G38" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="Y38" t="s">
-        <v>433</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39">
@@ -4899,633 +6801,661 @@
         <v>69</v>
       </c>
       <c r="G39" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="Y39" t="s">
-        <v>522</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="Y40" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="Y41" t="s">
-        <v>118</v>
+        <v>522</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>536</v>
+        <v>208</v>
       </c>
       <c r="Y42" t="s">
-        <v>119</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>285</v>
+        <v>536</v>
       </c>
       <c r="Y43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="Y44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Y45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="Y46" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Y47" t="s">
-        <v>434</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>207</v>
+        <v>338</v>
       </c>
       <c r="Y48" t="s">
-        <v>209</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>316</v>
+        <v>207</v>
       </c>
       <c r="Y49" t="s">
-        <v>75</v>
+        <v>434</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="Y50" t="s">
-        <v>531</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="Y51" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>298</v>
+        <v>363</v>
       </c>
       <c r="Y52" t="s">
-        <v>125</v>
+        <v>531</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>351</v>
+        <v>298</v>
       </c>
       <c r="Y53" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="Y54" t="s">
-        <v>490</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>264</v>
+        <v>327</v>
       </c>
       <c r="Y55" t="s">
-        <v>459</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="Y56" t="s">
-        <v>127</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Y57" t="s">
-        <v>342</v>
+        <v>459</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>537</v>
+        <v>289</v>
       </c>
       <c r="Y58" t="s">
-        <v>460</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>290</v>
+        <v>537</v>
       </c>
       <c r="Y59" t="s">
-        <v>128</v>
+        <v>342</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="Y60" t="s">
-        <v>129</v>
+        <v>460</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="Y61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="Y62" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="Y63" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="Y65" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Y66" t="s">
-        <v>435</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="Y67" t="s">
-        <v>468</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="Y68" t="s">
-        <v>210</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="Y69" t="s">
-        <v>384</v>
+        <v>468</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>520</v>
+        <v>265</v>
       </c>
       <c r="Y70" t="s">
-        <v>436</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>310</v>
+        <v>520</v>
       </c>
       <c r="Y71" t="s">
-        <v>135</v>
+        <v>384</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>405</v>
+        <v>310</v>
       </c>
       <c r="Y72" t="s">
-        <v>136</v>
+        <v>436</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>300</v>
+        <v>405</v>
       </c>
       <c r="Y73" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>406</v>
+        <v>300</v>
       </c>
       <c r="Y74" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>258</v>
+        <v>406</v>
       </c>
       <c r="Y75" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>505</v>
+        <v>258</v>
       </c>
       <c r="Y76" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>340</v>
+        <v>505</v>
       </c>
       <c r="Y77" t="s">
-        <v>448</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>276</v>
+        <v>340</v>
       </c>
       <c r="Y78" t="s">
-        <v>461</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="Y79" t="s">
-        <v>139</v>
+        <v>448</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="Y80" t="s">
-        <v>140</v>
+        <v>461</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>424</v>
+        <v>287</v>
       </c>
       <c r="Y81" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="Y82" t="s">
-        <v>491</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>266</v>
+        <v>328</v>
       </c>
       <c r="Y83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="Y84" t="s">
-        <v>143</v>
+        <v>491</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Y85" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="Y86" t="s">
-        <v>492</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>523</v>
+        <v>272</v>
       </c>
       <c r="Y87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>267</v>
+        <v>523</v>
       </c>
       <c r="Y88" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="Y89" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="Y90" t="s">
-        <v>198</v>
+        <v>449</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Y91" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="Y92" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="Y93" t="s">
-        <v>199</v>
+        <v>565</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="Y94" t="s">
-        <v>437</v>
+        <v>566</v>
       </c>
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="Y95" t="s">
-        <v>438</v>
+        <v>211</v>
       </c>
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>273</v>
+        <v>336</v>
       </c>
       <c r="Y96" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97">
       <c r="G97" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="G98" t="s">
         <v>274</v>
       </c>
-      <c r="Y97" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="98">
       <c r="Y98" t="s">
-        <v>202</v>
+        <v>437</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>203</v>
+        <v>438</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>493</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>517</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>145</v>
+        <v>219</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>518</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>378</v>
+        <v>493</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>146</v>
+        <v>517</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>148</v>
+        <v>518</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>149</v>
+        <v>378</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>439</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>162</v>
+        <v>439</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>163</v>
+        <v>563</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>166</v>
       </c>
     </row>

--- a/examples/mouse/artifact/script/MouseWheel.xlsx
+++ b/examples/mouse/artifact/script/MouseWheel.xlsx
@@ -20,39 +20,40 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3452" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4574" uniqueCount="573">
   <si>
     <t>description</t>
   </si>
@@ -1768,6 +1769,24 @@
   </si>
   <si>
     <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1775,7 +1794,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="91" x14ac:knownFonts="1">
+  <fonts count="123" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2357,8 +2376,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3142,8 +3363,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="163">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -4811,6 +5338,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4818,7 +5997,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="149">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5139,52 +6318,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="114" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="114" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="117" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="117" fontId="77" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="120" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="146" fillId="120" fontId="78" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="123" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="123" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="81" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="129" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="129" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="120" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="120" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="132" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="132" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="141" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="174" fillId="144" fontId="93" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="147" fontId="94" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="150" fontId="95" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="97" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="156" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="147" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="159" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="159" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="168" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="171" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="174" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="177" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="183" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="174" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="186" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="186" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5509,7 +6784,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5534,81 +6809,84 @@
         <v>471</v>
       </c>
       <c r="E1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>343</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>329</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>502</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>472</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>192</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>50</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>235</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>51</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>391</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>407</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>408</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>352</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>392</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>409</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5626,81 +6904,84 @@
         <v>473</v>
       </c>
       <c r="E2" t="s">
+        <v>568</v>
+      </c>
+      <c r="F2" t="s">
         <v>56</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>70</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>72</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>445</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>77</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>456</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>311</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>379</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>430</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>506</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>483</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>412</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>425</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>249</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>213</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>393</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>414</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>415</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>376</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>402</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>94</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>167</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>172</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>179</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>427</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>494</v>
       </c>
     </row>
@@ -5717,76 +6998,76 @@
       <c r="D3" t="s">
         <v>503</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>453</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>360</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>86</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>47</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>478</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>345</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>337</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>330</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>84</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>507</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>484</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>426</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>236</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>214</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>394</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>416</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>377</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>403</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>95</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>168</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>173</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>359</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>180</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5800,82 +7081,82 @@
       <c r="D4" t="s">
         <v>474</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>71</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>382</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>446</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>479</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>346</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>234</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>331</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>508</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>485</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>237</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>215</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>395</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>417</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>353</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>404</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>349</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>169</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>174</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>180</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>419</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>567</v>
       </c>
       <c r="B5" t="s">
         <v>370</v>
@@ -5883,73 +7164,73 @@
       <c r="D5" t="s">
         <v>475</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>454</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>428</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>564</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>455</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>521</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>347</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>457</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>85</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>509</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>29</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>238</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>216</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>396</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>418</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>354</v>
       </c>
-      <c r="Y5" t="s">
-        <v>350</v>
-      </c>
       <c r="Z5" t="s">
+        <v>571</v>
+      </c>
+      <c r="AA5" t="s">
         <v>170</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>175</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>181</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>420</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>371</v>
@@ -5957,1505 +7238,1513 @@
       <c r="D6" t="s">
         <v>476</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>477</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>332</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>443</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>344</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>70</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>28</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>510</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>30</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>239</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>386</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>397</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>356</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>96</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>440</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>176</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>182</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>421</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>372</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>220</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>383</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>442</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>530</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>311</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>511</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>32</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>240</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>413</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>398</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>355</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>97</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>441</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>177</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>183</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>422</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>373</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>314</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>361</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>324</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>480</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>33</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>512</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>89</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>241</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>399</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>357</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>98</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>171</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>178</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>184</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>423</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>374</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>362</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>325</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>78</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>34</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>513</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>90</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>242</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>400</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>358</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>205</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>185</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>343</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>311</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>302</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>447</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>37</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>35</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>514</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>432</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>243</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>401</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>253</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>186</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>251</v>
-      </c>
-      <c r="G11" t="s">
+        <v>343</v>
+      </c>
+      <c r="F11" t="s">
+        <v>570</v>
+      </c>
+      <c r="H11" t="s">
         <v>348</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>318</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>481</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>466</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>515</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>91</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>244</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>254</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>255</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>329</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>315</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>270</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>319</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>385</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>532</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>516</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>40</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>245</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>99</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>187</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>329</v>
+      </c>
+      <c r="F13" t="s">
         <v>337</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>259</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>320</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>431</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>92</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>250</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>322</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>188</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>502</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>312</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>321</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>41</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>467</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>93</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>246</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>100</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>189</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>472</v>
-      </c>
-      <c r="E15" t="s">
+        <v>502</v>
+      </c>
+      <c r="F15" t="s">
         <v>57</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>260</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>482</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>486</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>247</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>101</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>190</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>192</v>
-      </c>
-      <c r="E16" t="s">
+        <v>472</v>
+      </c>
+      <c r="F16" t="s">
         <v>380</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>261</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>79</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>560</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>487</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>248</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>73</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>191</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" t="s">
         <v>381</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>313</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>80</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>39</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>488</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>462</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>235</v>
-      </c>
-      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
         <v>410</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>87</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>458</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>102</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s">
+        <v>235</v>
+      </c>
+      <c r="F19" t="s">
         <v>58</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>88</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>81</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>103</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>391</v>
-      </c>
-      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
         <v>59</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>292</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>82</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>104</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>407</v>
-      </c>
-      <c r="E21" t="s">
+        <v>391</v>
+      </c>
+      <c r="F21" t="s">
         <v>252</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>293</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>375</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>105</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>408</v>
-      </c>
-      <c r="E22" t="s">
+        <v>407</v>
+      </c>
+      <c r="F22" t="s">
         <v>535</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>294</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>465</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>489</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>352</v>
-      </c>
-      <c r="E23" t="s">
+        <v>408</v>
+      </c>
+      <c r="F23" t="s">
         <v>60</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>295</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>106</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>392</v>
-      </c>
-      <c r="E24" t="s">
+        <v>352</v>
+      </c>
+      <c r="F24" t="s">
         <v>317</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>286</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>387</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>561</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" t="s">
+        <v>392</v>
+      </c>
+      <c r="F25" t="s">
         <v>61</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>275</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>519</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>107</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" t="s">
         <v>444</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>74</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>83</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>108</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" t="s">
         <v>221</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>278</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>429</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>109</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>222</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>262</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>409</v>
-      </c>
-      <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
         <v>463</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>279</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>409</v>
+      </c>
+      <c r="F30" t="s">
+        <v>464</v>
+      </c>
+      <c r="H30" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>223</v>
       </c>
-      <c r="E30" t="s">
-        <v>464</v>
-      </c>
-      <c r="G30" t="s">
-        <v>280</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>411</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>212</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>62</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>271</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>63</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>281</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>64</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>504</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>65</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>256</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>66</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>326</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>67</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>303</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>68</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>257</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>69</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>304</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>263</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>76</v>
       </c>
-      <c r="Y41" t="s">
-        <v>522</v>
+      <c r="Z41" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>208</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>536</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>285</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>296</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>297</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>339</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>338</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>207</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>316</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>335</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>363</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>298</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>351</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>327</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>264</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>288</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>289</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>537</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>290</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>299</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>308</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>333</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>305</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>306</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>364</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>365</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>341</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>309</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>265</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>520</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>310</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>405</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>300</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>406</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>258</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>505</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>340</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>276</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>282</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>287</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>424</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>328</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>266</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>277</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>283</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>272</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>523</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>267</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>284</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>268</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>269</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>301</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>307</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>291</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>336</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>273</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>274</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>166</v>
       </c>
     </row>

--- a/examples/mouse/artifact/script/MouseWheel.xlsx
+++ b/examples/mouse/artifact/script/MouseWheel.xlsx
@@ -20,7 +20,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
     <definedName name="external">'#system'!$J$2:$J$5</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4574" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5699" uniqueCount="578">
   <si>
     <t>description</t>
   </si>
@@ -1787,6 +1787,21 @@
   </si>
   <si>
     <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>clearVariables(variables)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
   </si>
 </sst>
 </file>
@@ -1794,7 +1809,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="123" x14ac:knownFonts="1">
+  <fonts count="155" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2578,8 +2593,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3669,8 +3886,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="291">
     <border>
       <left/>
       <right/>
@@ -3707,6 +4230,658 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -5997,7 +7172,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="181">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6414,52 +7589,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="168" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="202" fillId="168" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="171" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="171" fontId="109" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="174" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="174" fontId="110" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="177" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="177" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="113" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="183" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="183" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="174" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="174" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="186" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="186" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="186" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="186" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="195" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="198" fontId="125" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="201" fontId="126" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="204" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="129" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="210" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="201" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="213" fontId="133" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="213" fontId="134" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="136" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="222" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="225" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="228" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="231" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="237" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="228" borderId="286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="240" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="240" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7100,7 +8371,7 @@
         <v>346</v>
       </c>
       <c r="L4" t="s">
-        <v>234</v>
+        <v>576</v>
       </c>
       <c r="M4" t="s">
         <v>331</v>
@@ -7136,7 +8407,7 @@
         <v>404</v>
       </c>
       <c r="Z4" t="s">
-        <v>349</v>
+        <v>577</v>
       </c>
       <c r="AA4" t="s">
         <v>169</v>
@@ -7183,7 +8454,7 @@
         <v>347</v>
       </c>
       <c r="L5" t="s">
-        <v>457</v>
+        <v>234</v>
       </c>
       <c r="N5" t="s">
         <v>85</v>
@@ -7254,7 +8525,7 @@
         <v>344</v>
       </c>
       <c r="L6" t="s">
-        <v>70</v>
+        <v>457</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -7316,7 +8587,7 @@
         <v>530</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="N7" t="s">
         <v>311</v>
@@ -7375,7 +8646,7 @@
         <v>324</v>
       </c>
       <c r="L8" t="s">
-        <v>480</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -7431,7 +8702,7 @@
         <v>325</v>
       </c>
       <c r="L9" t="s">
-        <v>78</v>
+        <v>480</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -7475,7 +8746,7 @@
         <v>447</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -7516,7 +8787,7 @@
         <v>318</v>
       </c>
       <c r="L11" t="s">
-        <v>481</v>
+        <v>37</v>
       </c>
       <c r="N11" t="s">
         <v>466</v>
@@ -7554,7 +8825,7 @@
         <v>319</v>
       </c>
       <c r="L12" t="s">
-        <v>385</v>
+        <v>481</v>
       </c>
       <c r="N12" t="s">
         <v>532</v>
@@ -7592,7 +8863,7 @@
         <v>320</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>385</v>
       </c>
       <c r="N13" t="s">
         <v>431</v>
@@ -7627,7 +8898,7 @@
         <v>321</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>467</v>
@@ -7659,7 +8930,7 @@
         <v>260</v>
       </c>
       <c r="L15" t="s">
-        <v>482</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -7691,7 +8962,7 @@
         <v>261</v>
       </c>
       <c r="L16" t="s">
-        <v>79</v>
+        <v>482</v>
       </c>
       <c r="N16" t="s">
         <v>560</v>
@@ -7723,7 +8994,7 @@
         <v>313</v>
       </c>
       <c r="L17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -7749,7 +9020,7 @@
         <v>87</v>
       </c>
       <c r="L18" t="s">
-        <v>458</v>
+        <v>80</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -7766,13 +9037,13 @@
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>575</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
       </c>
       <c r="L19" t="s">
-        <v>81</v>
+        <v>458</v>
       </c>
       <c r="Z19" t="s">
         <v>103</v>
@@ -7786,13 +9057,13 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
       </c>
       <c r="L20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s">
         <v>104</v>
@@ -7806,13 +9077,13 @@
         <v>391</v>
       </c>
       <c r="F21" t="s">
-        <v>252</v>
+        <v>59</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
       </c>
       <c r="L21" t="s">
-        <v>375</v>
+        <v>82</v>
       </c>
       <c r="Z21" t="s">
         <v>105</v>
@@ -7826,13 +9097,13 @@
         <v>407</v>
       </c>
       <c r="F22" t="s">
-        <v>535</v>
+        <v>252</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
       </c>
       <c r="L22" t="s">
-        <v>465</v>
+        <v>574</v>
       </c>
       <c r="Z22" t="s">
         <v>489</v>
@@ -7846,13 +9117,13 @@
         <v>408</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>535</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>465</v>
       </c>
       <c r="Z23" t="s">
         <v>106</v>
@@ -7866,13 +9137,13 @@
         <v>352</v>
       </c>
       <c r="F24" t="s">
-        <v>317</v>
+        <v>60</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
       </c>
       <c r="L24" t="s">
-        <v>387</v>
+        <v>43</v>
       </c>
       <c r="Z24" t="s">
         <v>561</v>
@@ -7886,13 +9157,13 @@
         <v>392</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>317</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
       </c>
       <c r="L25" t="s">
-        <v>519</v>
+        <v>387</v>
       </c>
       <c r="Z25" t="s">
         <v>107</v>
@@ -7906,13 +9177,13 @@
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>444</v>
+        <v>61</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>83</v>
+        <v>519</v>
       </c>
       <c r="Z26" t="s">
         <v>108</v>
@@ -7926,13 +9197,13 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>221</v>
+        <v>444</v>
       </c>
       <c r="H27" t="s">
         <v>278</v>
       </c>
       <c r="L27" t="s">
-        <v>429</v>
+        <v>83</v>
       </c>
       <c r="Z27" t="s">
         <v>109</v>
@@ -7946,13 +9217,13 @@
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H28" t="s">
         <v>262</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
+        <v>429</v>
       </c>
       <c r="Z28" t="s">
         <v>110</v>
@@ -7963,13 +9234,13 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>463</v>
+        <v>222</v>
       </c>
       <c r="H29" t="s">
         <v>279</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s">
         <v>323</v>
@@ -7980,10 +9251,13 @@
         <v>409</v>
       </c>
       <c r="F30" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H30" t="s">
         <v>280</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
       </c>
       <c r="Z30" t="s">
         <v>111</v>
@@ -7994,7 +9268,7 @@
         <v>223</v>
       </c>
       <c r="F31" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="H31" t="s">
         <v>212</v>
@@ -8005,7 +9279,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>62</v>
+        <v>411</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
@@ -8016,7 +9290,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H33" t="s">
         <v>281</v>
@@ -8027,7 +9301,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H34" t="s">
         <v>504</v>
@@ -8038,7 +9312,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H35" t="s">
         <v>256</v>
@@ -8049,7 +9323,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H36" t="s">
         <v>326</v>
@@ -8060,7 +9334,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H37" t="s">
         <v>303</v>
@@ -8071,7 +9345,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
@@ -8082,7 +9356,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H39" t="s">
         <v>304</v>
@@ -8092,6 +9366,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>69</v>
+      </c>
       <c r="H40" t="s">
         <v>263</v>
       </c>

--- a/examples/mouse/artifact/script/MouseWheel.xlsx
+++ b/examples/mouse/artifact/script/MouseWheel.xlsx
@@ -20,13 +20,13 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -47,7 +47,7 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5699" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6264" uniqueCount="581">
   <si>
     <t>description</t>
   </si>
@@ -1802,6 +1802,15 @@
   </si>
   <si>
     <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1809,7 +1818,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="155" x14ac:knownFonts="1">
+  <fonts count="171" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2795,8 +2804,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4192,8 +4302,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="291">
+  <borders count="323">
     <border>
       <left/>
       <right/>
@@ -4230,6 +4493,332 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -7172,7 +7761,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="197">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7685,52 +8274,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="222" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="222" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="225" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="225" fontId="141" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="228" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="228" fontId="142" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="231" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="231" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="145" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="237" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="237" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="228" borderId="286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="286" fillId="228" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="240" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="240" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="240" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="240" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="249" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="252" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="255" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="258" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="264" borderId="314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="255" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="267" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="267" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8055,7 +8692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8521,6 +9158,9 @@
       <c r="I6" t="s">
         <v>443</v>
       </c>
+      <c r="J6" t="s">
+        <v>578</v>
+      </c>
       <c r="K6" t="s">
         <v>344</v>
       </c>
@@ -9037,7 +9677,7 @@
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>575</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -9057,7 +9697,7 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
@@ -9077,7 +9717,7 @@
         <v>391</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>252</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
@@ -9097,7 +9737,7 @@
         <v>407</v>
       </c>
       <c r="F22" t="s">
-        <v>252</v>
+        <v>535</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
@@ -9117,7 +9757,7 @@
         <v>408</v>
       </c>
       <c r="F23" t="s">
-        <v>535</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
@@ -9137,7 +9777,7 @@
         <v>352</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>317</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
@@ -9157,7 +9797,7 @@
         <v>392</v>
       </c>
       <c r="F25" t="s">
-        <v>317</v>
+        <v>61</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
@@ -9177,7 +9817,7 @@
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>444</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
@@ -9197,7 +9837,7 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>444</v>
+        <v>221</v>
       </c>
       <c r="H27" t="s">
         <v>278</v>
@@ -9217,7 +9857,7 @@
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H28" t="s">
         <v>262</v>
@@ -9234,7 +9874,7 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>222</v>
+        <v>463</v>
       </c>
       <c r="H29" t="s">
         <v>279</v>
@@ -9251,7 +9891,7 @@
         <v>409</v>
       </c>
       <c r="F30" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H30" t="s">
         <v>280</v>
@@ -9268,7 +9908,7 @@
         <v>223</v>
       </c>
       <c r="F31" t="s">
-        <v>464</v>
+        <v>411</v>
       </c>
       <c r="H31" t="s">
         <v>212</v>
@@ -9279,7 +9919,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>411</v>
+        <v>62</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
@@ -9290,7 +9930,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H33" t="s">
         <v>281</v>
@@ -9301,7 +9941,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H34" t="s">
         <v>504</v>
@@ -9312,7 +9952,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
         <v>256</v>
@@ -9323,7 +9963,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H36" t="s">
         <v>326</v>
@@ -9334,7 +9974,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H37" t="s">
         <v>303</v>
@@ -9345,7 +9985,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
@@ -9356,7 +9996,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H39" t="s">
         <v>304</v>
@@ -9366,9 +10006,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>69</v>
-      </c>
       <c r="H40" t="s">
         <v>263</v>
       </c>
@@ -9842,186 +10479,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>438</v>
+        <v>579</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>200</v>
+        <v>580</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>201</v>
+        <v>438</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>493</v>
+        <v>219</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>569</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>145</v>
+        <v>569</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>378</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>146</v>
+        <v>518</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>147</v>
+        <v>378</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>439</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>563</v>
+        <v>439</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>161</v>
+        <v>563</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>166</v>
       </c>
     </row>

--- a/examples/mouse/artifact/script/MouseWheel.xlsx
+++ b/examples/mouse/artifact/script/MouseWheel.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6264" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6829" uniqueCount="581">
   <si>
     <t>description</t>
   </si>
@@ -1818,7 +1818,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="171" x14ac:knownFonts="1">
+  <fonts count="187" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2905,8 +2905,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="274">
+  <fills count="301">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4455,8 +4556,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="323">
+  <borders count="355">
     <border>
       <left/>
       <right/>
@@ -4493,6 +4747,332 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -7761,7 +8341,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="213">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8322,52 +8902,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="249" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="249" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="252" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="252" fontId="157" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="255" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="255" fontId="158" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="258" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="258" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="161" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="264" borderId="314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="314" fillId="264" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="255" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="255" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="267" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="267" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="267" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="267" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="276" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="279" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="282" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="285" borderId="342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="291" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="282" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="294" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="294" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/examples/mouse/artifact/script/MouseWheel.xlsx
+++ b/examples/mouse/artifact/script/MouseWheel.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6829" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7394" uniqueCount="581">
   <si>
     <t>description</t>
   </si>
@@ -1818,7 +1818,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="187" x14ac:knownFonts="1">
+  <fonts count="203" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3006,8 +3006,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="301">
+  <fills count="328">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4709,8 +4810,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="355">
+  <borders count="387">
     <border>
       <left/>
       <right/>
@@ -4747,6 +5001,332 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -8341,7 +8921,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="229">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8950,52 +9530,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="276" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="276" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="279" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="279" fontId="173" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="282" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="282" fontId="174" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="285" borderId="342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="342" fillId="285" fontId="175" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="288" fontId="177" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="291" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="291" fontId="179" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="282" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="282" fontId="180" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="294" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="294" fontId="181" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="294" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="294" fontId="182" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="183" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="303" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="306" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="309" borderId="370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="312" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="318" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="309" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="321" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="321" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
